--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H2">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.31562588470531</v>
+        <v>1.655628666666667</v>
       </c>
       <c r="N2">
-        <v>1.31562588470531</v>
+        <v>4.966886000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9788840386998182</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9788840386998183</v>
       </c>
       <c r="Q2">
-        <v>0.1529206767265048</v>
+        <v>0.2724905403508889</v>
       </c>
       <c r="R2">
-        <v>0.1529206767265048</v>
+        <v>2.452414863158</v>
       </c>
       <c r="S2">
-        <v>0.03110686697858683</v>
+        <v>0.03412240178955434</v>
       </c>
       <c r="T2">
-        <v>0.03110686697858683</v>
+        <v>0.03412240178955434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.21809165958846</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H3">
-        <v>3.21809165958846</v>
+        <v>0.493753</v>
       </c>
       <c r="I3">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J3">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.31562588470531</v>
+        <v>0.01121666666666667</v>
       </c>
       <c r="N3">
-        <v>1.31562588470531</v>
+        <v>0.03365</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006631810736596105</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.006631810736596105</v>
       </c>
       <c r="Q3">
-        <v>4.233804686708847</v>
+        <v>0.001846087605555556</v>
       </c>
       <c r="R3">
-        <v>4.233804686708847</v>
+        <v>0.01661478845</v>
       </c>
       <c r="S3">
-        <v>0.8612334317504547</v>
+        <v>0.0002311747884325316</v>
       </c>
       <c r="T3">
-        <v>0.8612334317504547</v>
+        <v>0.0002311747884325316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1645843333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.493753</v>
+      </c>
+      <c r="I4">
+        <v>0.03485847193389392</v>
+      </c>
+      <c r="J4">
+        <v>0.03485847193389392</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.073493</v>
+      </c>
+      <c r="O4">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P4">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q4">
+        <v>0.004031932136555555</v>
+      </c>
+      <c r="R4">
+        <v>0.036287389229</v>
+      </c>
+      <c r="S4">
+        <v>0.0005048953559070445</v>
+      </c>
+      <c r="T4">
+        <v>0.0005048953559070446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.402282092126498</v>
-      </c>
-      <c r="H4">
-        <v>0.402282092126498</v>
-      </c>
-      <c r="I4">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="J4">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.31562588470531</v>
-      </c>
-      <c r="N4">
-        <v>1.31562588470531</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.529252733355027</v>
-      </c>
-      <c r="R4">
-        <v>0.529252733355027</v>
-      </c>
-      <c r="S4">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="T4">
-        <v>0.1076597012709584</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.368329</v>
+      </c>
+      <c r="H5">
+        <v>10.104987</v>
+      </c>
+      <c r="I5">
+        <v>0.7134020567608963</v>
+      </c>
+      <c r="J5">
+        <v>0.7134020567608964</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.655628666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.966886000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.9788840386998182</v>
+      </c>
+      <c r="P5">
+        <v>0.9788840386998183</v>
+      </c>
+      <c r="Q5">
+        <v>5.576702051164667</v>
+      </c>
+      <c r="R5">
+        <v>50.190318460482</v>
+      </c>
+      <c r="S5">
+        <v>0.6983378865388631</v>
+      </c>
+      <c r="T5">
+        <v>0.6983378865388633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.368329</v>
+      </c>
+      <c r="H6">
+        <v>10.104987</v>
+      </c>
+      <c r="I6">
+        <v>0.7134020567608963</v>
+      </c>
+      <c r="J6">
+        <v>0.7134020567608964</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01121666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.03365</v>
+      </c>
+      <c r="O6">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="P6">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="Q6">
+        <v>0.03778142361666666</v>
+      </c>
+      <c r="R6">
+        <v>0.34003281255</v>
+      </c>
+      <c r="S6">
+        <v>0.004731147419536656</v>
+      </c>
+      <c r="T6">
+        <v>0.004731147419536656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.368329</v>
+      </c>
+      <c r="H7">
+        <v>10.104987</v>
+      </c>
+      <c r="I7">
+        <v>0.7134020567608963</v>
+      </c>
+      <c r="J7">
+        <v>0.7134020567608964</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.073493</v>
+      </c>
+      <c r="O7">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P7">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q7">
+        <v>0.08251620106566666</v>
+      </c>
+      <c r="R7">
+        <v>0.742645809591</v>
+      </c>
+      <c r="S7">
+        <v>0.01033302280249651</v>
+      </c>
+      <c r="T7">
+        <v>0.01033302280249651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.565765</v>
+      </c>
+      <c r="I8">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J8">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.655628666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.966886000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9788840386998182</v>
+      </c>
+      <c r="P8">
+        <v>0.9788840386998183</v>
+      </c>
+      <c r="Q8">
+        <v>1.967860917532223</v>
+      </c>
+      <c r="R8">
+        <v>17.71074825779</v>
+      </c>
+      <c r="S8">
+        <v>0.2464237503714007</v>
+      </c>
+      <c r="T8">
+        <v>0.2464237503714008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.565765</v>
+      </c>
+      <c r="I9">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J9">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01121666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.03365</v>
+      </c>
+      <c r="O9">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="P9">
+        <v>0.006631810736596105</v>
+      </c>
+      <c r="Q9">
+        <v>0.01333199913888889</v>
+      </c>
+      <c r="R9">
+        <v>0.11998799225</v>
+      </c>
+      <c r="S9">
+        <v>0.001669488528626917</v>
+      </c>
+      <c r="T9">
+        <v>0.001669488528626917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.565765</v>
+      </c>
+      <c r="I10">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J10">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02449766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.073493</v>
+      </c>
+      <c r="O10">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="P10">
+        <v>0.01448415056358566</v>
+      </c>
+      <c r="Q10">
+        <v>0.02911764079388889</v>
+      </c>
+      <c r="R10">
+        <v>0.262058767145</v>
+      </c>
+      <c r="S10">
+        <v>0.00364623240518211</v>
+      </c>
+      <c r="T10">
+        <v>0.003646232405182112</v>
       </c>
     </row>
   </sheetData>
